--- a/generated_output/temp/us-core-condition.xlsx
+++ b/generated_output/temp/us-core-condition.xlsx
@@ -186,7 +186,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -205,7 +205,7 @@
     <t>Condition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -221,7 +221,7 @@
     <t>Condition.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -240,7 +240,7 @@
     <t>Condition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -272,7 +272,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -298,7 +298,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -324,7 +324,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -359,7 +359,7 @@
     <t>Condition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -387,7 +387,7 @@
     <t>Condition.clinicalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -605,7 +605,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -636,7 +636,7 @@
     <t>Condition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -664,8 +664,8 @@
     <t>Condition.onset[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Age {[]} {[]}Period {[]} {[]}Range {[]} {[]}string {[]} {[]}</t>
+    <t>dateTime
+AgePeriodRangestring</t>
   </si>
   <si>
     <t>Estimated or actual date,  date-time, or age</t>
@@ -714,7 +714,7 @@
     <t>Condition.recordedDate</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -736,7 +736,7 @@
     <t>Condition.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -773,7 +773,7 @@
     <t>Condition.stage</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -793,7 +793,7 @@
     <t>Condition.stage.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -860,7 +860,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ClinicalImpression], CanonicalType[http://hl7.org/fhir/StructureDefinition/DiagnosticReport], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
+    <t xml:space="preserve">Reference(ClinicalImpression|DiagnosticReport|Observation)
 </t>
   </si>
   <si>
@@ -950,7 +950,7 @@
     <t>Condition.evidence.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -963,7 +963,7 @@
     <t>Condition.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1032,67 +1032,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
